--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/RScripts/2.Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{934939DF-02FD-47BC-9A3C-F65F63100FF1}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4076D442-7596-46FB-ADC0-39DDDDFCCFDE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Blysmus kompressus</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Triglochin palustris</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Cyperaceae</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>Poaceae unknown</t>
-  </si>
-  <si>
-    <t>Juncaginaceae unknown</t>
   </si>
   <si>
     <t>Cyperaceae unknown</t>
@@ -574,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -606,6 +600,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,13 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620C268-8E80-43C7-B6DC-8822E5B4B5D3}">
-  <dimension ref="A1:DD210"/>
+  <dimension ref="A1:DD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BS19" sqref="BS19"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,290 +952,290 @@
     <col min="96" max="96" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BM1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1340,13 +1335,14 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
-    </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="CO2" s="19"/>
+    </row>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1447,12 +1443,12 @@
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1563,12 +1559,12 @@
       <c r="CM4" s="6"/>
       <c r="CN4" s="6"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1711,12 +1707,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -1865,12 +1861,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1979,12 +1975,12 @@
       <c r="CM7" s="6"/>
       <c r="CN7" s="6"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2095,12 +2091,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2199,12 +2195,12 @@
       <c r="CM9" s="6"/>
       <c r="CN9" s="6"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2311,12 +2307,12 @@
       <c r="CM10" s="6"/>
       <c r="CN10" s="6"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2411,12 +2407,12 @@
       <c r="CM11" s="6"/>
       <c r="CN11" s="6"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2511,12 +2507,12 @@
       <c r="CM12" s="6"/>
       <c r="CN12" s="6"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2613,12 +2609,12 @@
       <c r="CM13" s="6"/>
       <c r="CN13" s="6"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2731,12 +2727,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2839,12 +2835,12 @@
       <c r="CM15" s="6"/>
       <c r="CN15" s="6"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>90</v>
@@ -3020,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3146,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3284,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7">
@@ -3424,7 +3420,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3563,10 +3559,10 @@
     </row>
     <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3682,7 +3678,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3808,7 +3804,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
         <v>5</v>
@@ -3962,126 +3958,136 @@
       <c r="CN23" s="6"/>
     </row>
     <row r="24" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
+      <c r="A24" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>40</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>3</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7">
+        <v>40</v>
+      </c>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7">
         <v>25</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="6"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
-      <c r="BQ24" s="6"/>
-      <c r="BR24" s="6"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="6"/>
-      <c r="BU24" s="6"/>
-      <c r="BV24" s="6"/>
-      <c r="BW24" s="6"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="6"/>
-      <c r="BZ24" s="6"/>
-      <c r="CA24" s="6"/>
-      <c r="CB24" s="6"/>
-      <c r="CC24" s="6"/>
-      <c r="CD24" s="6"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24" s="6"/>
-      <c r="CG24" s="6"/>
-      <c r="CH24" s="6"/>
-      <c r="CI24" s="6"/>
-      <c r="CJ24" s="6"/>
-      <c r="CK24" s="6"/>
-      <c r="CL24" s="6"/>
-      <c r="CM24" s="6"/>
-      <c r="CN24" s="6"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7">
+        <v>25</v>
+      </c>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="7"/>
+      <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="7"/>
+      <c r="CL24" s="7"/>
+      <c r="CM24" s="7"/>
+      <c r="CN24" s="7"/>
     </row>
     <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7">
-        <v>20</v>
-      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>40</v>
-      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7">
-        <v>3</v>
-      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -4100,14 +4106,10 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="7">
-        <v>40</v>
-      </c>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7">
-        <v>0.1</v>
-      </c>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -4119,9 +4121,7 @@
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
-      <c r="AT25" s="7">
-        <v>5</v>
-      </c>
+      <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
       <c r="AW25" s="7"/>
@@ -4138,18 +4138,18 @@
       <c r="BH25" s="7"/>
       <c r="BI25" s="7"/>
       <c r="BJ25" s="7"/>
-      <c r="BK25" s="7">
-        <v>25</v>
-      </c>
+      <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7">
-        <v>25</v>
-      </c>
-      <c r="BR25" s="7"/>
+      <c r="BM25" s="14">
+        <v>10</v>
+      </c>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="14"/>
+      <c r="BP25" s="14"/>
+      <c r="BQ25" s="14"/>
+      <c r="BR25" s="14">
+        <v>5</v>
+      </c>
       <c r="BS25" s="7"/>
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
@@ -4175,10 +4175,10 @@
     </row>
     <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4186,7 +4186,9 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>2</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -4203,7 +4205,9 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>25</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
@@ -4242,16 +4246,12 @@
       <c r="BJ26" s="7"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="14">
-        <v>10</v>
-      </c>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="14"/>
-      <c r="BR26" s="14">
-        <v>5</v>
-      </c>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
       <c r="BS26" s="7"/>
       <c r="BT26" s="7"/>
       <c r="BU26" s="7"/>
@@ -4270,17 +4270,17 @@
       <c r="CH26" s="7"/>
       <c r="CI26" s="7"/>
       <c r="CJ26" s="7"/>
-      <c r="CK26" s="7"/>
+      <c r="CK26" s="2"/>
       <c r="CL26" s="7"/>
       <c r="CM26" s="7"/>
       <c r="CN26" s="7"/>
     </row>
     <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -4288,9 +4288,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7">
-        <v>2</v>
-      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -4307,9 +4305,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="7">
-        <v>25</v>
-      </c>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -4372,17 +4368,19 @@
       <c r="CH27" s="7"/>
       <c r="CI27" s="7"/>
       <c r="CJ27" s="7"/>
-      <c r="CK27" s="2"/>
+      <c r="CK27" s="14">
+        <v>55</v>
+      </c>
       <c r="CL27" s="7"/>
       <c r="CM27" s="7"/>
       <c r="CN27" s="7"/>
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4401,7 +4399,9 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>0.5</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -4414,7 +4414,9 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
+      <c r="AG28" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
@@ -4452,7 +4454,9 @@
       <c r="BP28" s="7"/>
       <c r="BQ28" s="7"/>
       <c r="BR28" s="7"/>
-      <c r="BS28" s="7"/>
+      <c r="BS28" s="7">
+        <v>10</v>
+      </c>
       <c r="BT28" s="7"/>
       <c r="BU28" s="7"/>
       <c r="BV28" s="7"/>
@@ -4470,19 +4474,17 @@
       <c r="CH28" s="7"/>
       <c r="CI28" s="7"/>
       <c r="CJ28" s="7"/>
-      <c r="CK28" s="14">
-        <v>55</v>
-      </c>
+      <c r="CK28" s="7"/>
       <c r="CL28" s="7"/>
       <c r="CM28" s="7"/>
       <c r="CN28" s="7"/>
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -4496,14 +4498,14 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7">
+        <v>35</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
@@ -4516,9 +4518,7 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
-      <c r="AG29" s="7">
-        <v>0.2</v>
-      </c>
+      <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
@@ -4530,13 +4530,17 @@
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
+      <c r="AS29" s="7">
+        <v>4</v>
+      </c>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="7"/>
-      <c r="AY29" s="7"/>
+      <c r="AY29" s="14">
+        <v>35</v>
+      </c>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
@@ -4547,23 +4551,33 @@
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
       <c r="BI29" s="7"/>
-      <c r="BJ29" s="7"/>
+      <c r="BJ29" s="7">
+        <v>50</v>
+      </c>
       <c r="BK29" s="7"/>
-      <c r="BL29" s="7"/>
+      <c r="BL29" s="7">
+        <v>8</v>
+      </c>
       <c r="BM29" s="7"/>
-      <c r="BN29" s="7"/>
+      <c r="BN29" s="7">
+        <v>35</v>
+      </c>
       <c r="BO29" s="7"/>
       <c r="BP29" s="7"/>
       <c r="BQ29" s="7"/>
-      <c r="BR29" s="7"/>
-      <c r="BS29" s="7">
+      <c r="BR29" s="7">
+        <v>55</v>
+      </c>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7">
         <v>10</v>
       </c>
-      <c r="BT29" s="7"/>
       <c r="BU29" s="7"/>
       <c r="BV29" s="7"/>
       <c r="BW29" s="7"/>
-      <c r="BX29" s="7"/>
+      <c r="BX29" s="7">
+        <v>20</v>
+      </c>
       <c r="BY29" s="7"/>
       <c r="BZ29" s="7"/>
       <c r="CA29" s="7"/>
@@ -4578,15 +4592,17 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="7"/>
       <c r="CL29" s="7"/>
-      <c r="CM29" s="7"/>
+      <c r="CM29" s="7">
+        <v>15</v>
+      </c>
       <c r="CN29" s="7"/>
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4600,9 +4616,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7">
-        <v>35</v>
-      </c>
+      <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -4632,17 +4646,13 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
-      <c r="AS30" s="7">
-        <v>4</v>
-      </c>
+      <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
-      <c r="AY30" s="14">
-        <v>35</v>
-      </c>
+      <c r="AY30" s="7"/>
       <c r="AZ30" s="7"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
@@ -4653,40 +4663,40 @@
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
       <c r="BI30" s="7"/>
-      <c r="BJ30" s="7">
-        <v>50</v>
-      </c>
+      <c r="BJ30" s="7"/>
       <c r="BK30" s="7"/>
-      <c r="BL30" s="7">
-        <v>8</v>
-      </c>
+      <c r="BL30" s="7"/>
       <c r="BM30" s="7"/>
-      <c r="BN30" s="7">
-        <v>35</v>
-      </c>
+      <c r="BN30" s="7"/>
       <c r="BO30" s="7"/>
       <c r="BP30" s="7"/>
       <c r="BQ30" s="7"/>
-      <c r="BR30" s="7">
-        <v>55</v>
-      </c>
+      <c r="BR30" s="7"/>
       <c r="BS30" s="7"/>
-      <c r="BT30" s="7">
-        <v>10</v>
-      </c>
+      <c r="BT30" s="7"/>
       <c r="BU30" s="7"/>
       <c r="BV30" s="7"/>
-      <c r="BW30" s="7"/>
+      <c r="BW30" s="7">
+        <v>15</v>
+      </c>
       <c r="BX30" s="7">
-        <v>20</v>
-      </c>
-      <c r="BY30" s="7"/>
-      <c r="BZ30" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="BY30" s="7">
+        <v>5</v>
+      </c>
+      <c r="BZ30" s="7">
+        <v>10</v>
+      </c>
       <c r="CA30" s="7"/>
       <c r="CB30" s="7"/>
-      <c r="CC30" s="7"/>
+      <c r="CC30" s="7">
+        <v>8</v>
+      </c>
       <c r="CD30" s="7"/>
-      <c r="CE30" s="7"/>
+      <c r="CE30" s="7">
+        <v>5</v>
+      </c>
       <c r="CF30" s="7"/>
       <c r="CG30" s="7"/>
       <c r="CH30" s="7"/>
@@ -4694,786 +4704,316 @@
       <c r="CJ30" s="7"/>
       <c r="CK30" s="7"/>
       <c r="CL30" s="7"/>
-      <c r="CM30" s="7">
+      <c r="CM30" s="7"/>
+      <c r="CN30" s="7"/>
+    </row>
+    <row r="31" spans="1:108" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <v>85</v>
+      </c>
+      <c r="G31" s="10">
+        <v>50.1</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
+        <v>6</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10">
+        <v>40</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>20</v>
+      </c>
+      <c r="N31" s="10">
+        <v>40</v>
+      </c>
+      <c r="O31" s="13">
+        <v>31</v>
+      </c>
+      <c r="P31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10">
+        <v>40</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10">
+        <v>44</v>
+      </c>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10">
+        <v>45</v>
+      </c>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10">
         <v>15</v>
       </c>
-      <c r="CN30" s="7"/>
-    </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
-      <c r="AX31" s="7"/>
-      <c r="AY31" s="7"/>
-      <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
-      <c r="BJ31" s="7"/>
-      <c r="BK31" s="7"/>
-      <c r="BL31" s="7"/>
-      <c r="BM31" s="7"/>
-      <c r="BN31" s="7"/>
-      <c r="BO31" s="7"/>
-      <c r="BP31" s="7"/>
-      <c r="BQ31" s="7"/>
-      <c r="BR31" s="7"/>
-      <c r="BS31" s="7"/>
-      <c r="BT31" s="7"/>
-      <c r="BU31" s="7"/>
-      <c r="BV31" s="7"/>
-      <c r="BW31" s="7">
+      <c r="Z31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10">
+        <v>55</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10">
+        <v>30</v>
+      </c>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
+      <c r="BK31" s="10"/>
+      <c r="BL31" s="10">
+        <v>25</v>
+      </c>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="10"/>
+      <c r="BO31" s="10">
+        <v>2</v>
+      </c>
+      <c r="BP31" s="10"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="5"/>
+      <c r="BS31" s="10">
         <v>15</v>
       </c>
-      <c r="BX31" s="7">
+      <c r="BT31" s="10"/>
+      <c r="BU31" s="10">
+        <v>20</v>
+      </c>
+      <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
+      <c r="BX31" s="13">
+        <v>15</v>
+      </c>
+      <c r="BY31" s="10"/>
+      <c r="BZ31" s="10"/>
+      <c r="CA31" s="10"/>
+      <c r="CB31" s="10"/>
+      <c r="CC31" s="10"/>
+      <c r="CD31" s="10">
+        <v>20</v>
+      </c>
+      <c r="CE31" s="10">
+        <v>1</v>
+      </c>
+      <c r="CF31" s="10"/>
+      <c r="CG31" s="10">
         <v>10</v>
       </c>
-      <c r="BY31" s="7">
-        <v>5</v>
-      </c>
-      <c r="BZ31" s="7">
-        <v>10</v>
-      </c>
-      <c r="CA31" s="7"/>
-      <c r="CB31" s="7"/>
-      <c r="CC31" s="7">
-        <v>8</v>
-      </c>
-      <c r="CD31" s="7"/>
-      <c r="CE31" s="7">
-        <v>5</v>
-      </c>
-      <c r="CF31" s="7"/>
-      <c r="CG31" s="7"/>
-      <c r="CH31" s="7"/>
-      <c r="CI31" s="7"/>
-      <c r="CJ31" s="7"/>
-      <c r="CK31" s="7"/>
-      <c r="CL31" s="7"/>
-      <c r="CM31" s="7"/>
-      <c r="CN31" s="7"/>
-    </row>
-    <row r="32" spans="1:108" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10">
-        <v>3</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
-        <v>85</v>
-      </c>
-      <c r="G32" s="10">
-        <v>50.1</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10">
-        <v>6</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10">
-        <v>40</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10">
-        <v>20</v>
-      </c>
-      <c r="N32" s="10">
-        <v>40</v>
-      </c>
-      <c r="O32" s="13">
-        <v>31</v>
-      </c>
-      <c r="P32" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10">
-        <v>40</v>
-      </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10">
-        <v>44</v>
-      </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10">
-        <v>45</v>
-      </c>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10">
-        <v>55</v>
-      </c>
-      <c r="AK32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10">
-        <v>2</v>
-      </c>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10">
+      <c r="CH31" s="10"/>
+      <c r="CI31" s="10">
         <v>30</v>
       </c>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="10"/>
-      <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
-      <c r="AW32" s="10"/>
-      <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="10"/>
-      <c r="BA32" s="10"/>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10"/>
-      <c r="BF32" s="10"/>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="10"/>
-      <c r="BJ32" s="10"/>
-      <c r="BK32" s="10"/>
-      <c r="BL32" s="10">
-        <v>25</v>
-      </c>
-      <c r="BM32" s="5"/>
-      <c r="BN32" s="10"/>
-      <c r="BO32" s="10">
-        <v>2</v>
-      </c>
-      <c r="BP32" s="10"/>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="5"/>
-      <c r="BS32" s="10">
-        <v>15</v>
-      </c>
-      <c r="BT32" s="10"/>
-      <c r="BU32" s="10">
-        <v>20</v>
-      </c>
-      <c r="BV32" s="10"/>
-      <c r="BW32" s="10"/>
-      <c r="BX32" s="13">
-        <v>15</v>
-      </c>
-      <c r="BY32" s="10"/>
-      <c r="BZ32" s="10"/>
-      <c r="CA32" s="10"/>
-      <c r="CB32" s="10"/>
-      <c r="CC32" s="10"/>
-      <c r="CD32" s="10">
-        <v>20</v>
-      </c>
-      <c r="CE32" s="10">
-        <v>1</v>
-      </c>
-      <c r="CF32" s="10"/>
-      <c r="CG32" s="10">
-        <v>10</v>
-      </c>
-      <c r="CH32" s="10"/>
-      <c r="CI32" s="10">
-        <v>30</v>
-      </c>
-      <c r="CJ32" s="10"/>
-      <c r="CK32" s="10"/>
-      <c r="CL32" s="10"/>
-      <c r="CM32" s="10"/>
-      <c r="CN32" s="10"/>
-      <c r="CO32" s="11"/>
-      <c r="CP32" s="11"/>
-    </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="6">
-        <f>SUM(C2:C32)</f>
-        <v>95</v>
-      </c>
-      <c r="D33" s="6">
-        <f>SUM(D2:D32)</f>
-        <v>123.1</v>
-      </c>
-      <c r="E33" s="6">
-        <f>SUM(E2:E32)</f>
-        <v>110.1</v>
-      </c>
-      <c r="F33" s="6">
-        <f>SUM(F2:F32)</f>
-        <v>120</v>
-      </c>
-      <c r="G33" s="6">
-        <f>SUM(G2:G32)</f>
-        <v>135.30000000000001</v>
-      </c>
-      <c r="H33" s="6">
-        <f>SUM(H2:H32)</f>
-        <v>47.1</v>
-      </c>
-      <c r="I33" s="6">
-        <f>SUM(I2:I32)</f>
-        <v>118</v>
-      </c>
-      <c r="J33" s="6">
-        <f>SUM(J2:J32)</f>
-        <v>99.199999999999989</v>
-      </c>
-      <c r="K33" s="6">
-        <f>SUM(K2:K32)</f>
-        <v>110.5</v>
-      </c>
-      <c r="L33" s="6">
-        <f>SUM(L2:L32)</f>
-        <v>78.099999999999994</v>
-      </c>
-      <c r="M33" s="6">
-        <f>SUM(M2:M32)</f>
-        <v>115</v>
-      </c>
-      <c r="N33" s="6">
-        <f>SUM(N2:N32)</f>
-        <v>148</v>
-      </c>
-      <c r="O33" s="6">
-        <f>SUM(O2:O32)</f>
-        <v>105.2</v>
-      </c>
-      <c r="P33" s="6">
-        <f>SUM(P2:P32)</f>
-        <v>94.6</v>
-      </c>
-      <c r="Q33" s="6">
-        <f>SUM(Q2:Q32)</f>
-        <v>95.1</v>
-      </c>
-      <c r="R33" s="6">
-        <f>SUM(R2:R32)</f>
-        <v>100</v>
-      </c>
-      <c r="S33" s="6">
-        <f>SUM(S2:S32)</f>
-        <v>70</v>
-      </c>
-      <c r="T33" s="6">
-        <f>SUM(T2:T32)</f>
-        <v>80</v>
-      </c>
-      <c r="U33" s="6">
-        <f>SUM(U2:U32)</f>
-        <v>98.1</v>
-      </c>
-      <c r="V33" s="6">
-        <f>SUM(V2:V32)</f>
-        <v>75</v>
-      </c>
-      <c r="W33" s="6">
-        <f>SUM(W2:W32)</f>
-        <v>79</v>
-      </c>
-      <c r="X33" s="6">
-        <f>SUM(X2:X32)</f>
-        <v>100</v>
-      </c>
-      <c r="Y33" s="6">
-        <f>SUM(Y2:Y32)</f>
-        <v>96</v>
-      </c>
-      <c r="Z33" s="6">
-        <f>SUM(Z2:Z32)</f>
-        <v>55</v>
-      </c>
-      <c r="AA33" s="6">
-        <f>SUM(AA2:AA32)</f>
-        <v>105</v>
-      </c>
-      <c r="AB33" s="6">
-        <f>SUM(AB2:AB32)</f>
-        <v>98</v>
-      </c>
-      <c r="AC33" s="6">
-        <f>SUM(AC2:AC32)</f>
-        <v>80</v>
-      </c>
-      <c r="AD33" s="6">
-        <f>SUM(AD2:AD32)</f>
-        <v>65</v>
-      </c>
-      <c r="AE33" s="6">
-        <f>SUM(AE2:AE32)</f>
-        <v>109</v>
-      </c>
-      <c r="AF33" s="6">
-        <f>SUM(AF2:AF32)</f>
-        <v>110</v>
-      </c>
-      <c r="AG33" s="6">
-        <f>SUM(AG2:AG32)</f>
-        <v>92.2</v>
-      </c>
-      <c r="AH33" s="6">
-        <f>SUM(AH2:AH32)</f>
-        <v>97.1</v>
-      </c>
-      <c r="AI33" s="6">
-        <f t="shared" ref="AI33:BN33" si="0">SUM(AI2:AI32)</f>
-        <v>100.1</v>
-      </c>
-      <c r="AJ33" s="6">
-        <f t="shared" si="0"/>
-        <v>102.5</v>
-      </c>
-      <c r="AK33" s="6">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="AL33" s="6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AM33" s="6">
-        <f t="shared" si="0"/>
-        <v>101.9</v>
-      </c>
-      <c r="AN33" s="6">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="AO33" s="6">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="AP33" s="6">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AQ33" s="6">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="AR33" s="6">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="AS33" s="6">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="AT33" s="6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AU33" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="AV33" s="6">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="AW33" s="6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="AX33" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="AY33" s="6">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="AZ33" s="6">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="BA33" s="6">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="BB33" s="6">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="BC33" s="6">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="BD33" s="6">
-        <f t="shared" si="0"/>
-        <v>90.2</v>
-      </c>
-      <c r="BE33" s="6">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="BF33" s="6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="BG33" s="6">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="BH33" s="6">
-        <f t="shared" si="0"/>
-        <v>96.3</v>
-      </c>
-      <c r="BI33" s="6">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="BJ33" s="6">
-        <f t="shared" si="0"/>
-        <v>60.5</v>
-      </c>
-      <c r="BK33" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="BL33" s="6">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="BM33" s="6">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="BN33" s="6">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="BO33" s="6">
-        <f>SUM(BO2:BO32)</f>
-        <v>132</v>
-      </c>
-      <c r="BP33" s="6">
-        <f>SUM(BP2:BP32)</f>
-        <v>106.2</v>
-      </c>
-      <c r="BQ33" s="6">
-        <f>SUM(BQ2:BQ32)</f>
-        <v>50.5</v>
-      </c>
-      <c r="BR33" s="6">
-        <f>SUM(BR2:BR32)</f>
-        <v>75</v>
-      </c>
-      <c r="BS33" s="6">
-        <f>SUM(BS2:BS32)</f>
-        <v>46</v>
-      </c>
-      <c r="BT33" s="6">
-        <f>SUM(BT2:BT32)</f>
-        <v>74</v>
-      </c>
-      <c r="BU33" s="6">
-        <f>SUM(BU2:BU32)</f>
-        <v>74</v>
-      </c>
-      <c r="BV33" s="6">
-        <f>SUM(BV2:BV32)</f>
-        <v>115</v>
-      </c>
-      <c r="BW33" s="6">
-        <f>SUM(BW2:BW32)</f>
-        <v>33</v>
-      </c>
-      <c r="BX33" s="6">
-        <f>SUM(BX2:BX32)</f>
-        <v>76</v>
-      </c>
-      <c r="BY33" s="6">
-        <f>SUM(BY2:BY32)</f>
-        <v>61</v>
-      </c>
-      <c r="BZ33" s="6">
-        <f>SUM(BZ2:BZ32)</f>
-        <v>11.5</v>
-      </c>
-      <c r="CA33" s="6">
-        <f>SUM(CA2:CA32)</f>
-        <v>74</v>
-      </c>
-      <c r="CB33" s="6">
-        <f>SUM(CB2:CB32)</f>
-        <v>105.5</v>
-      </c>
-      <c r="CC33" s="6">
-        <f>SUM(CC2:CC32)</f>
-        <v>69</v>
-      </c>
-      <c r="CD33" s="6">
-        <f>SUM(CD2:CD32)</f>
-        <v>101.5</v>
-      </c>
-      <c r="CE33" s="6">
-        <f>SUM(CE2:CE32)</f>
-        <v>96</v>
-      </c>
-      <c r="CF33" s="6">
-        <f>SUM(CF2:CF32)</f>
-        <v>100</v>
-      </c>
-      <c r="CG33" s="6">
-        <f>SUM(CG2:CG32)</f>
-        <v>81</v>
-      </c>
-      <c r="CH33" s="6">
-        <f>SUM(CH2:CH32)</f>
-        <v>98</v>
-      </c>
-      <c r="CI33" s="6">
-        <f>SUM(CI2:CI32)</f>
-        <v>95</v>
-      </c>
-      <c r="CJ33" s="6">
-        <f>SUM(CJ2:CJ32)</f>
-        <v>70</v>
-      </c>
-      <c r="CK33" s="6">
-        <f>SUM(CK2:CK32)</f>
-        <v>55</v>
-      </c>
-      <c r="CL33" s="6">
-        <f>SUM(CL2:CL32)</f>
-        <v>89</v>
-      </c>
-      <c r="CM33" s="6">
-        <f>SUM(CM2:CM32)</f>
-        <v>47</v>
-      </c>
-      <c r="CN33" s="6">
-        <f>SUM(CN2:CN32)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
-      <c r="BS34" s="2"/>
-      <c r="BT34" s="2"/>
-      <c r="BU34" s="2"/>
-      <c r="BV34" s="2"/>
-      <c r="BW34" s="2"/>
-      <c r="BX34" s="2"/>
-      <c r="BY34" s="2"/>
-      <c r="BZ34" s="2"/>
-      <c r="CA34" s="2"/>
-      <c r="CB34" s="2"/>
-      <c r="CC34" s="2"/>
-      <c r="CD34" s="2"/>
-      <c r="CE34" s="2"/>
-      <c r="CF34" s="2"/>
-      <c r="CG34" s="2"/>
-      <c r="CH34" s="2"/>
-      <c r="CI34" s="2"/>
-      <c r="CJ34" s="2"/>
-      <c r="CK34" s="2"/>
-      <c r="CL34" s="2"/>
-      <c r="CM34" s="2"/>
-      <c r="CN34" s="2"/>
-    </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="CJ31" s="10"/>
+      <c r="CK31" s="10"/>
+      <c r="CL31" s="10"/>
+      <c r="CM31" s="10"/>
+      <c r="CN31" s="10"/>
+      <c r="CO31" s="11"/>
+      <c r="CP31" s="11"/>
+    </row>
+    <row r="32" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="2"/>
+      <c r="BY32" s="2"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+      <c r="CF32" s="2"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
+      <c r="CJ32" s="2"/>
+      <c r="CK32" s="2"/>
+      <c r="CL32" s="2"/>
+      <c r="CM32" s="2"/>
+      <c r="CN32" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="15"/>
     </row>
@@ -6116,14 +5656,6 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="15"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="15"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4076D442-7596-46FB-ADC0-39DDDDFCCFDE}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36FBA4C5-B88F-4F31-8A4D-66378FCDE567}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
@@ -527,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -585,7 +591,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -601,6 +606,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,6 +631,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,25 +957,31 @@
   <dimension ref="A1:DD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="92" width="6" customWidth="1"/>
+    <col min="3" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6" style="23" customWidth="1"/>
+    <col min="14" max="55" width="6" customWidth="1"/>
+    <col min="56" max="56" width="6" style="23" customWidth="1"/>
+    <col min="57" max="88" width="6" customWidth="1"/>
+    <col min="89" max="89" width="6" style="23" customWidth="1"/>
+    <col min="90" max="92" width="6" customWidth="1"/>
     <col min="96" max="96" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -989,7 +1014,7 @@
       <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1118,7 +1143,7 @@
       <c r="BC1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="19" t="s">
         <v>84</v>
       </c>
       <c r="BE1" s="2" t="s">
@@ -1217,7 +1242,7 @@
       <c r="CJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="19" t="s">
         <v>117</v>
       </c>
       <c r="CL1" s="2" t="s">
@@ -1231,10 +1256,10 @@
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="6"/>
@@ -1247,7 +1272,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1298,7 +1323,7 @@
       <c r="BA2" s="6"/>
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
+      <c r="BD2" s="20"/>
       <c r="BE2" s="6"/>
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
@@ -1331,17 +1356,17 @@
       <c r="CH2" s="6"/>
       <c r="CI2" s="6"/>
       <c r="CJ2" s="6"/>
-      <c r="CK2" s="6"/>
+      <c r="CK2" s="20"/>
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
-      <c r="CO2" s="19"/>
+      <c r="CO2" s="18"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="6"/>
@@ -1354,7 +1379,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1397,7 +1422,7 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
+      <c r="BD3" s="20"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
@@ -1438,16 +1463,16 @@
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
       <c r="CJ3" s="6"/>
-      <c r="CK3" s="6"/>
+      <c r="CK3" s="20"/>
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="6"/>
@@ -1466,7 +1491,7 @@
       <c r="L4" s="6">
         <v>5</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="6">
         <v>3</v>
       </c>
@@ -1517,7 +1542,7 @@
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
+      <c r="BD4" s="20"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
@@ -1554,16 +1579,16 @@
       <c r="CH4" s="6"/>
       <c r="CI4" s="6"/>
       <c r="CJ4" s="6"/>
-      <c r="CK4" s="6"/>
+      <c r="CK4" s="20"/>
       <c r="CL4" s="6"/>
       <c r="CM4" s="6"/>
       <c r="CN4" s="6"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="6"/>
@@ -1578,7 +1603,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0.2</v>
@@ -1637,7 +1662,7 @@
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
+      <c r="BD5" s="20"/>
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
       <c r="BG5" s="6"/>
@@ -1696,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="CJ5" s="6"/>
-      <c r="CK5" s="6"/>
+      <c r="CK5" s="20"/>
       <c r="CL5" s="6">
         <v>15</v>
       </c>
@@ -1708,10 +1733,10 @@
       </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="6"/>
@@ -1734,7 +1759,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="6">
         <v>20</v>
       </c>
@@ -1799,7 +1824,7 @@
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
+      <c r="BD6" s="20"/>
       <c r="BE6" s="6"/>
       <c r="BF6" s="6"/>
       <c r="BG6" s="6"/>
@@ -1852,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="CJ6" s="6"/>
-      <c r="CK6" s="6"/>
+      <c r="CK6" s="20"/>
       <c r="CL6" s="6">
         <v>20</v>
       </c>
@@ -1862,10 +1887,10 @@
       </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="6"/>
@@ -1880,7 +1905,7 @@
       <c r="L7" s="6">
         <v>15</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1933,7 +1958,7 @@
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
+      <c r="BD7" s="20"/>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
@@ -1970,16 +1995,16 @@
       <c r="CH7" s="6"/>
       <c r="CI7" s="6"/>
       <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
+      <c r="CK7" s="20"/>
       <c r="CL7" s="6"/>
       <c r="CM7" s="6"/>
       <c r="CN7" s="6"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="6"/>
@@ -1994,7 +2019,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2039,7 +2064,7 @@
       <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
+      <c r="BD8" s="20"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
@@ -2082,7 +2107,7 @@
       </c>
       <c r="CI8" s="6"/>
       <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
+      <c r="CK8" s="20"/>
       <c r="CL8" s="6">
         <v>4</v>
       </c>
@@ -2092,10 +2117,10 @@
       </c>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="6"/>
@@ -2108,7 +2133,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2153,7 +2178,7 @@
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
+      <c r="BD9" s="20"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
       <c r="BG9" s="6"/>
@@ -2190,16 +2215,16 @@
       <c r="CH9" s="6"/>
       <c r="CI9" s="6"/>
       <c r="CJ9" s="6"/>
-      <c r="CK9" s="6"/>
+      <c r="CK9" s="20"/>
       <c r="CL9" s="6"/>
       <c r="CM9" s="6"/>
       <c r="CN9" s="6"/>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="6"/>
@@ -2218,7 +2243,7 @@
       <c r="L10" s="6">
         <v>10</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2267,7 +2292,7 @@
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
+      <c r="BD10" s="20"/>
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
       <c r="BG10" s="6">
@@ -2302,16 +2327,16 @@
       <c r="CH10" s="6"/>
       <c r="CI10" s="6"/>
       <c r="CJ10" s="6"/>
-      <c r="CK10" s="6"/>
+      <c r="CK10" s="20"/>
       <c r="CL10" s="6"/>
       <c r="CM10" s="6"/>
       <c r="CN10" s="6"/>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C11" s="6"/>
@@ -2326,7 +2351,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2369,7 +2394,7 @@
       <c r="BA11" s="6"/>
       <c r="BB11" s="6"/>
       <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
+      <c r="BD11" s="20"/>
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
       <c r="BG11" s="6"/>
@@ -2402,16 +2427,16 @@
       <c r="CH11" s="6"/>
       <c r="CI11" s="6"/>
       <c r="CJ11" s="6"/>
-      <c r="CK11" s="6"/>
+      <c r="CK11" s="20"/>
       <c r="CL11" s="6"/>
       <c r="CM11" s="6"/>
       <c r="CN11" s="6"/>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="6"/>
@@ -2423,10 +2448,10 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>0.1</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2469,7 +2494,7 @@
       <c r="BA12" s="6"/>
       <c r="BB12" s="6"/>
       <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
+      <c r="BD12" s="20"/>
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
       <c r="BG12" s="6"/>
@@ -2502,16 +2527,16 @@
       <c r="CH12" s="6"/>
       <c r="CI12" s="6"/>
       <c r="CJ12" s="6"/>
-      <c r="CK12" s="6"/>
+      <c r="CK12" s="20"/>
       <c r="CL12" s="6"/>
       <c r="CM12" s="6"/>
       <c r="CN12" s="6"/>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="6"/>
@@ -2526,7 +2551,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2571,7 +2596,7 @@
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
+      <c r="BD13" s="20"/>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
       <c r="BG13" s="6"/>
@@ -2604,16 +2629,16 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="6"/>
       <c r="CJ13" s="6"/>
-      <c r="CK13" s="6"/>
+      <c r="CK13" s="20"/>
       <c r="CL13" s="6"/>
       <c r="CM13" s="6"/>
       <c r="CN13" s="6"/>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="6"/>
@@ -2626,7 +2651,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2671,7 +2696,7 @@
       <c r="BA14" s="6"/>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
+      <c r="BD14" s="20"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
       <c r="BG14" s="6"/>
@@ -2720,7 +2745,7 @@
       <c r="CJ14" s="6">
         <v>30</v>
       </c>
-      <c r="CK14" s="6"/>
+      <c r="CK14" s="20"/>
       <c r="CL14" s="6"/>
       <c r="CM14" s="6"/>
       <c r="CN14" s="6">
@@ -2728,10 +2753,10 @@
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="6"/>
@@ -2748,7 +2773,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="6">
         <v>10</v>
       </c>
@@ -2797,7 +2822,7 @@
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
+      <c r="BD15" s="20"/>
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
       <c r="BG15" s="6"/>
@@ -2830,16 +2855,16 @@
       <c r="CH15" s="6"/>
       <c r="CI15" s="6"/>
       <c r="CJ15" s="6"/>
-      <c r="CK15" s="6"/>
+      <c r="CK15" s="20"/>
       <c r="CL15" s="6"/>
       <c r="CM15" s="6"/>
       <c r="CN15" s="6"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="7">
@@ -2864,7 +2889,7 @@
         <v>60</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -2961,7 +2986,7 @@
       <c r="BC16" s="7">
         <v>55</v>
       </c>
-      <c r="BD16" s="7"/>
+      <c r="BD16" s="21"/>
       <c r="BE16" s="7">
         <v>8</v>
       </c>
@@ -3006,16 +3031,16 @@
         <v>15</v>
       </c>
       <c r="CJ16" s="7"/>
-      <c r="CK16" s="7"/>
+      <c r="CK16" s="21"/>
       <c r="CL16" s="7"/>
       <c r="CM16" s="7"/>
       <c r="CN16" s="7"/>
     </row>
     <row r="17" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="6"/>
@@ -3032,7 +3057,7 @@
       <c r="L17" s="6">
         <v>10</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="20">
         <v>40</v>
       </c>
       <c r="N17" s="6">
@@ -3093,7 +3118,7 @@
       <c r="BC17" s="6">
         <v>2</v>
       </c>
-      <c r="BD17" s="6"/>
+      <c r="BD17" s="20"/>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
       <c r="BG17" s="6"/>
@@ -3132,16 +3157,16 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="6"/>
       <c r="CJ17" s="6"/>
-      <c r="CK17" s="6"/>
+      <c r="CK17" s="20"/>
       <c r="CL17" s="6"/>
       <c r="CM17" s="6"/>
       <c r="CN17" s="6"/>
     </row>
     <row r="18" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="7"/>
@@ -3158,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3203,7 +3228,7 @@
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
+      <c r="BD18" s="21"/>
       <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7">
@@ -3266,7 +3291,7 @@
       <c r="CJ18" s="7">
         <v>40</v>
       </c>
-      <c r="CK18" s="7"/>
+      <c r="CK18" s="21"/>
       <c r="CL18" s="7">
         <v>50</v>
       </c>
@@ -3276,10 +3301,10 @@
       <c r="CN18" s="7"/>
     </row>
     <row r="19" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="7"/>
@@ -3300,7 +3325,7 @@
       <c r="L19" s="7">
         <v>30</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="21">
         <v>55</v>
       </c>
       <c r="N19" s="7">
@@ -3373,7 +3398,7 @@
         <v>45</v>
       </c>
       <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
+      <c r="BD19" s="21"/>
       <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
@@ -3410,16 +3435,16 @@
       <c r="CH19" s="7"/>
       <c r="CI19" s="7"/>
       <c r="CJ19" s="7"/>
-      <c r="CK19" s="7"/>
+      <c r="CK19" s="21"/>
       <c r="CL19" s="7"/>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
     </row>
     <row r="20" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="7"/>
@@ -3432,7 +3457,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7">
         <v>10</v>
@@ -3487,7 +3512,7 @@
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
+      <c r="BD20" s="21"/>
       <c r="BE20" s="7">
         <v>90</v>
       </c>
@@ -3552,132 +3577,132 @@
         <v>25</v>
       </c>
       <c r="CJ20" s="7"/>
-      <c r="CK20" s="7"/>
+      <c r="CK20" s="21"/>
       <c r="CL20" s="7"/>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:108" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21">
         <v>90.2</v>
       </c>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
-      <c r="BY21" s="7"/>
-      <c r="BZ21" s="7"/>
-      <c r="CA21" s="7"/>
-      <c r="CB21" s="7"/>
-      <c r="CC21" s="7"/>
-      <c r="CD21" s="7"/>
-      <c r="CE21" s="7"/>
-      <c r="CF21" s="7"/>
-      <c r="CG21" s="7"/>
-      <c r="CH21" s="7"/>
-      <c r="CI21" s="7"/>
-      <c r="CJ21" s="7"/>
-      <c r="CK21" s="7"/>
-      <c r="CL21" s="7"/>
-      <c r="CM21" s="7"/>
-      <c r="CN21" s="7"/>
-      <c r="CO21" s="12"/>
-      <c r="CP21" s="12"/>
-      <c r="CQ21" s="12"/>
-      <c r="CR21" s="12"/>
-      <c r="CS21" s="12"/>
-      <c r="CT21" s="12"/>
-      <c r="CU21" s="12"/>
-      <c r="CV21" s="12"/>
-      <c r="CW21" s="12"/>
-      <c r="CX21" s="12"/>
-      <c r="CY21" s="12"/>
-      <c r="CZ21" s="12"/>
-      <c r="DA21" s="12"/>
-      <c r="DB21" s="12"/>
-      <c r="DC21" s="12"/>
-      <c r="DD21" s="12"/>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="21"/>
+      <c r="BM21" s="21"/>
+      <c r="BN21" s="21"/>
+      <c r="BO21" s="21"/>
+      <c r="BP21" s="21"/>
+      <c r="BQ21" s="21"/>
+      <c r="BR21" s="21"/>
+      <c r="BS21" s="21"/>
+      <c r="BT21" s="21"/>
+      <c r="BU21" s="21"/>
+      <c r="BV21" s="21"/>
+      <c r="BW21" s="21"/>
+      <c r="BX21" s="21"/>
+      <c r="BY21" s="21"/>
+      <c r="BZ21" s="21"/>
+      <c r="CA21" s="21"/>
+      <c r="CB21" s="21"/>
+      <c r="CC21" s="21"/>
+      <c r="CD21" s="21"/>
+      <c r="CE21" s="21"/>
+      <c r="CF21" s="21"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" s="21"/>
+      <c r="CI21" s="21"/>
+      <c r="CJ21" s="21"/>
+      <c r="CK21" s="21"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="25"/>
+      <c r="CP21" s="25"/>
+      <c r="CQ21" s="25"/>
+      <c r="CR21" s="25"/>
+      <c r="CS21" s="25"/>
+      <c r="CT21" s="25"/>
+      <c r="CU21" s="25"/>
+      <c r="CV21" s="25"/>
+      <c r="CW21" s="25"/>
+      <c r="CX21" s="25"/>
+      <c r="CY21" s="25"/>
+      <c r="CZ21" s="25"/>
+      <c r="DA21" s="25"/>
+      <c r="DB21" s="25"/>
+      <c r="DC21" s="25"/>
+      <c r="DD21" s="25"/>
     </row>
     <row r="22" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="6"/>
@@ -3696,7 +3721,7 @@
         <v>0.5</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3759,7 +3784,7 @@
       <c r="BC22" s="6">
         <v>8</v>
       </c>
-      <c r="BD22" s="6"/>
+      <c r="BD22" s="20"/>
       <c r="BE22" s="6"/>
       <c r="BF22" s="6"/>
       <c r="BG22" s="6"/>
@@ -3794,16 +3819,16 @@
       <c r="CH22" s="6"/>
       <c r="CI22" s="6"/>
       <c r="CJ22" s="6"/>
-      <c r="CK22" s="6"/>
+      <c r="CK22" s="20"/>
       <c r="CL22" s="6"/>
       <c r="CM22" s="6"/>
       <c r="CN22" s="6"/>
     </row>
     <row r="23" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6">
@@ -3826,7 +3851,7 @@
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6">
         <v>10</v>
@@ -3905,7 +3930,7 @@
       <c r="BC23" s="6">
         <v>4</v>
       </c>
-      <c r="BD23" s="6"/>
+      <c r="BD23" s="20"/>
       <c r="BE23" s="6"/>
       <c r="BF23" s="6"/>
       <c r="BG23" s="6"/>
@@ -3952,16 +3977,16 @@
       <c r="CH23" s="6"/>
       <c r="CI23" s="6"/>
       <c r="CJ23" s="6"/>
-      <c r="CK23" s="6"/>
+      <c r="CK23" s="20"/>
       <c r="CL23" s="6"/>
       <c r="CM23" s="6"/>
       <c r="CN23" s="6"/>
     </row>
     <row r="24" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="7"/>
@@ -3980,7 +4005,7 @@
       <c r="L24" s="7">
         <v>3</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -4029,7 +4054,7 @@
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
+      <c r="BD24" s="21"/>
       <c r="BE24" s="7"/>
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
@@ -4066,16 +4091,16 @@
       <c r="CH24" s="7"/>
       <c r="CI24" s="7"/>
       <c r="CJ24" s="7"/>
-      <c r="CK24" s="7"/>
+      <c r="CK24" s="21"/>
       <c r="CL24" s="7"/>
       <c r="CM24" s="7"/>
       <c r="CN24" s="7"/>
     </row>
     <row r="25" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="7"/>
@@ -4088,7 +4113,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -4131,7 +4156,7 @@
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
       <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
+      <c r="BD25" s="21"/>
       <c r="BE25" s="7"/>
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
@@ -4140,14 +4165,14 @@
       <c r="BJ25" s="7"/>
       <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="14">
+      <c r="BM25" s="13">
         <v>10</v>
       </c>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="14"/>
-      <c r="BQ25" s="14"/>
-      <c r="BR25" s="14">
+      <c r="BN25" s="13"/>
+      <c r="BO25" s="13"/>
+      <c r="BP25" s="13"/>
+      <c r="BQ25" s="13"/>
+      <c r="BR25" s="13">
         <v>5</v>
       </c>
       <c r="BS25" s="7"/>
@@ -4168,16 +4193,16 @@
       <c r="CH25" s="7"/>
       <c r="CI25" s="7"/>
       <c r="CJ25" s="7"/>
-      <c r="CK25" s="7"/>
+      <c r="CK25" s="21"/>
       <c r="CL25" s="7"/>
       <c r="CM25" s="7"/>
       <c r="CN25" s="7"/>
     </row>
     <row r="26" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
@@ -4192,7 +4217,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -4237,7 +4262,7 @@
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
+      <c r="BD26" s="21"/>
       <c r="BE26" s="7"/>
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
@@ -4270,16 +4295,16 @@
       <c r="CH26" s="7"/>
       <c r="CI26" s="7"/>
       <c r="CJ26" s="7"/>
-      <c r="CK26" s="2"/>
+      <c r="CK26" s="19"/>
       <c r="CL26" s="7"/>
       <c r="CM26" s="7"/>
       <c r="CN26" s="7"/>
     </row>
     <row r="27" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="7"/>
@@ -4292,7 +4317,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4335,7 +4360,7 @@
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
-      <c r="BD27" s="7"/>
+      <c r="BD27" s="21"/>
       <c r="BE27" s="7"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
@@ -4368,7 +4393,7 @@
       <c r="CH27" s="7"/>
       <c r="CI27" s="7"/>
       <c r="CJ27" s="7"/>
-      <c r="CK27" s="14">
+      <c r="CK27" s="26">
         <v>55</v>
       </c>
       <c r="CL27" s="7"/>
@@ -4376,10 +4401,10 @@
       <c r="CN27" s="7"/>
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="7"/>
@@ -4392,7 +4417,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -4439,7 +4464,7 @@
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
-      <c r="BD28" s="7"/>
+      <c r="BD28" s="21"/>
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
@@ -4474,16 +4499,16 @@
       <c r="CH28" s="7"/>
       <c r="CI28" s="7"/>
       <c r="CJ28" s="7"/>
-      <c r="CK28" s="7"/>
+      <c r="CK28" s="21"/>
       <c r="CL28" s="7"/>
       <c r="CM28" s="7"/>
       <c r="CN28" s="7"/>
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="7"/>
@@ -4496,7 +4521,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7">
         <v>35</v>
@@ -4538,14 +4563,14 @@
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
       <c r="AX29" s="7"/>
-      <c r="AY29" s="14">
+      <c r="AY29" s="13">
         <v>35</v>
       </c>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
-      <c r="BD29" s="7"/>
+      <c r="BD29" s="21"/>
       <c r="BE29" s="7"/>
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
@@ -4590,7 +4615,7 @@
       <c r="CH29" s="7"/>
       <c r="CI29" s="7"/>
       <c r="CJ29" s="7"/>
-      <c r="CK29" s="7"/>
+      <c r="CK29" s="21"/>
       <c r="CL29" s="7"/>
       <c r="CM29" s="7">
         <v>15</v>
@@ -4598,10 +4623,10 @@
       <c r="CN29" s="7"/>
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="7"/>
@@ -4614,7 +4639,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -4657,7 +4682,7 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
+      <c r="BD30" s="21"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -4702,16 +4727,16 @@
       <c r="CH30" s="7"/>
       <c r="CI30" s="7"/>
       <c r="CJ30" s="7"/>
-      <c r="CK30" s="7"/>
+      <c r="CK30" s="21"/>
       <c r="CL30" s="7"/>
       <c r="CM30" s="7"/>
       <c r="CN30" s="7"/>
     </row>
     <row r="31" spans="1:108" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="8"/>
@@ -4734,13 +4759,13 @@
         <v>40</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="10">
+      <c r="M31" s="22">
         <v>20</v>
       </c>
       <c r="N31" s="10">
         <v>40</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <v>31</v>
       </c>
       <c r="P31" s="10">
@@ -4805,7 +4830,7 @@
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
       <c r="BC31" s="10"/>
-      <c r="BD31" s="10"/>
+      <c r="BD31" s="22"/>
       <c r="BE31" s="10"/>
       <c r="BF31" s="10"/>
       <c r="BG31" s="10"/>
@@ -4833,7 +4858,7 @@
       </c>
       <c r="BV31" s="10"/>
       <c r="BW31" s="10"/>
-      <c r="BX31" s="13">
+      <c r="BX31" s="12">
         <v>15</v>
       </c>
       <c r="BY31" s="10"/>
@@ -4856,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="CJ31" s="10"/>
-      <c r="CK31" s="10"/>
+      <c r="CK31" s="22"/>
       <c r="CL31" s="10"/>
       <c r="CM31" s="10"/>
       <c r="CN31" s="10"/>
@@ -4865,7 +4890,7 @@
     </row>
     <row r="32" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4876,7 +4901,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4919,7 +4944,7 @@
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
+      <c r="BD32" s="19"/>
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
@@ -4952,710 +4977,710 @@
       <c r="CH32" s="2"/>
       <c r="CI32" s="2"/>
       <c r="CJ32" s="2"/>
-      <c r="CK32" s="2"/>
+      <c r="CK32" s="19"/>
       <c r="CL32" s="2"/>
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="14"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="14"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="14"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="14"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="14"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="14"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="14"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="14"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="14"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="14"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="14"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="14"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="14"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="14"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="14"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="15"/>
+      <c r="B167" s="14"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="14"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="14"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="15"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="15"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="15"/>
+      <c r="B172" s="14"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="15"/>
+      <c r="B173" s="14"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="15"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="15"/>
+      <c r="B175" s="14"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="15"/>
+      <c r="B176" s="14"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="15"/>
+      <c r="B177" s="14"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="15"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="15"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="15"/>
+      <c r="B180" s="14"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="14"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="15"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="14"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="15"/>
+      <c r="B184" s="14"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="15"/>
+      <c r="B185" s="14"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="15"/>
+      <c r="B186" s="14"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="15"/>
+      <c r="B187" s="14"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="15"/>
+      <c r="B188" s="14"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="15"/>
+      <c r="B189" s="14"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="15"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="15"/>
+      <c r="B191" s="14"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="15"/>
+      <c r="B193" s="14"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="15"/>
+      <c r="B194" s="14"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="15"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="15"/>
+      <c r="B196" s="14"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="15"/>
+      <c r="B197" s="14"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="15"/>
+      <c r="B198" s="14"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="15"/>
+      <c r="B199" s="14"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="15"/>
+      <c r="B200" s="14"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="15"/>
+      <c r="B202" s="14"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="15"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="15"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="15"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="15"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="15"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="15"/>
+      <c r="B208" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36FBA4C5-B88F-4F31-8A4D-66378FCDE567}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A569366C-3667-4041-898B-C8CBC62F9831}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,6 +616,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,10 +960,10 @@
   <dimension ref="A1:DD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,105 +4303,105 @@
       <c r="CM26" s="7"/>
       <c r="CN26" s="7"/>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:108" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
-      <c r="AX27" s="7"/>
-      <c r="AY27" s="7"/>
-      <c r="AZ27" s="7"/>
-      <c r="BA27" s="7"/>
-      <c r="BB27" s="7"/>
-      <c r="BC27" s="7"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AX27" s="21"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="21"/>
+      <c r="BA27" s="21"/>
+      <c r="BB27" s="21"/>
+      <c r="BC27" s="21"/>
       <c r="BD27" s="21"/>
-      <c r="BE27" s="7"/>
-      <c r="BF27" s="7"/>
-      <c r="BG27" s="7"/>
-      <c r="BH27" s="7"/>
-      <c r="BI27" s="7"/>
-      <c r="BJ27" s="7"/>
-      <c r="BK27" s="7"/>
-      <c r="BL27" s="7"/>
-      <c r="BM27" s="7"/>
-      <c r="BN27" s="7"/>
-      <c r="BO27" s="7"/>
-      <c r="BP27" s="7"/>
-      <c r="BQ27" s="7"/>
-      <c r="BR27" s="7"/>
-      <c r="BS27" s="7"/>
-      <c r="BT27" s="7"/>
-      <c r="BU27" s="7"/>
-      <c r="BV27" s="7"/>
-      <c r="BW27" s="7"/>
-      <c r="BX27" s="7"/>
-      <c r="BY27" s="7"/>
-      <c r="BZ27" s="7"/>
-      <c r="CA27" s="7"/>
-      <c r="CB27" s="7"/>
-      <c r="CC27" s="7"/>
-      <c r="CD27" s="7"/>
-      <c r="CE27" s="7"/>
-      <c r="CF27" s="7"/>
-      <c r="CG27" s="7"/>
-      <c r="CH27" s="7"/>
-      <c r="CI27" s="7"/>
-      <c r="CJ27" s="7"/>
+      <c r="BE27" s="21"/>
+      <c r="BF27" s="21"/>
+      <c r="BG27" s="21"/>
+      <c r="BH27" s="21"/>
+      <c r="BI27" s="21"/>
+      <c r="BJ27" s="21"/>
+      <c r="BK27" s="21"/>
+      <c r="BL27" s="21"/>
+      <c r="BM27" s="21"/>
+      <c r="BN27" s="21"/>
+      <c r="BO27" s="21"/>
+      <c r="BP27" s="21"/>
+      <c r="BQ27" s="21"/>
+      <c r="BR27" s="21"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="21"/>
+      <c r="BU27" s="21"/>
+      <c r="BV27" s="21"/>
+      <c r="BW27" s="21"/>
+      <c r="BX27" s="21"/>
+      <c r="BY27" s="21"/>
+      <c r="BZ27" s="21"/>
+      <c r="CA27" s="21"/>
+      <c r="CB27" s="21"/>
+      <c r="CC27" s="21"/>
+      <c r="CD27" s="21"/>
+      <c r="CE27" s="21"/>
+      <c r="CF27" s="21"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" s="21"/>
+      <c r="CI27" s="21"/>
+      <c r="CJ27" s="21"/>
       <c r="CK27" s="26">
         <v>55</v>
       </c>
-      <c r="CL27" s="7"/>
-      <c r="CM27" s="7"/>
-      <c r="CN27" s="7"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CN27" s="21"/>
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">

--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/TsoKarVegetationDataAnalysisR/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="631" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D06FDB-8CC4-44D3-BEE7-908E03738C2A}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D483D43-F33C-47F4-8D78-C509177E7954}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
   <si>
-    <t>Blysmus kompressus</t>
-  </si>
-  <si>
     <t>Argentina anserina</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Astragalus tribulifolius</t>
+  </si>
+  <si>
+    <t>Blysmus compressus</t>
   </si>
 </sst>
 </file>
@@ -614,10 +614,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,10 +936,10 @@
   <dimension ref="A1:DD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,288 +953,288 @@
   <sheetData>
     <row r="1" spans="1:93" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BE1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CL1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1342,10 +1338,10 @@
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1449,10 +1445,10 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1566,10 +1562,10 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1715,10 +1711,10 @@
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1870,10 +1866,10 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1985,10 +1981,10 @@
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2102,10 +2098,10 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2207,10 +2203,10 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2320,10 +2316,10 @@
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2421,10 +2417,10 @@
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2522,10 +2518,10 @@
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2625,10 +2621,10 @@
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2744,10 +2740,10 @@
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2853,10 +2849,10 @@
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>90</v>
@@ -3030,10 +3026,10 @@
     </row>
     <row r="17" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3157,10 +3153,10 @@
     </row>
     <row r="18" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3296,10 +3292,10 @@
     </row>
     <row r="19" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
@@ -3437,10 +3433,10 @@
     </row>
     <row r="20" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3580,10 +3576,10 @@
     </row>
     <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3696,10 +3692,10 @@
     </row>
     <row r="22" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3823,10 +3819,10 @@
     </row>
     <row r="23" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -3982,10 +3978,10 @@
     </row>
     <row r="24" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4097,10 +4093,10 @@
     </row>
     <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4200,10 +4196,10 @@
     </row>
     <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4303,10 +4299,10 @@
     </row>
     <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4404,10 +4400,10 @@
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4509,10 +4505,10 @@
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4628,10 +4624,10 @@
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4739,10 +4735,10 @@
     </row>
     <row r="31" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3">
@@ -5821,12 +5817,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/TsoKarVegetationDataAnalysisR/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D483D43-F33C-47F4-8D78-C509177E7954}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107132E7-3CC6-4EB0-BE41-E2407900FF42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -614,6 +614,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,10 +940,10 @@
   <dimension ref="A1:DD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BP8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="CO35" sqref="A35:CO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,7 +4987,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -5075,63 +5079,245 @@
       <c r="CM33" s="14"/>
       <c r="CN33" s="14"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
+      <c r="BM36" s="14"/>
+      <c r="BN36" s="14"/>
+      <c r="BO36" s="14"/>
+      <c r="BP36" s="14"/>
+      <c r="BQ36" s="14"/>
+      <c r="BR36" s="14"/>
+      <c r="BS36" s="14"/>
+      <c r="BT36" s="14"/>
+      <c r="BU36" s="14"/>
+      <c r="BV36" s="14"/>
+      <c r="BW36" s="14"/>
+      <c r="BX36" s="14"/>
+      <c r="BY36" s="14"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="14"/>
+      <c r="CB36" s="14"/>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
+      <c r="CE36" s="14"/>
+      <c r="CF36" s="14"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="14"/>
+      <c r="CJ36" s="14"/>
+      <c r="CK36" s="14"/>
+      <c r="CL36" s="14"/>
+      <c r="CM36" s="14"/>
+      <c r="CN36" s="14"/>
+      <c r="CO36" s="14"/>
+    </row>
+    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
+      <c r="BN37" s="14"/>
+      <c r="BO37" s="14"/>
+      <c r="BP37" s="14"/>
+      <c r="BQ37" s="14"/>
+      <c r="BR37" s="14"/>
+      <c r="BS37" s="14"/>
+      <c r="BT37" s="14"/>
+      <c r="BU37" s="14"/>
+      <c r="BV37" s="14"/>
+      <c r="BW37" s="14"/>
+      <c r="BX37" s="14"/>
+      <c r="BY37" s="14"/>
+      <c r="BZ37" s="14"/>
+      <c r="CA37" s="14"/>
+      <c r="CB37" s="14"/>
+      <c r="CC37" s="14"/>
+      <c r="CD37" s="14"/>
+      <c r="CE37" s="14"/>
+      <c r="CF37" s="14"/>
+      <c r="CG37" s="14"/>
+      <c r="CH37" s="14"/>
+      <c r="CI37" s="14"/>
+      <c r="CJ37" s="14"/>
+      <c r="CK37" s="14"/>
+      <c r="CL37" s="14"/>
+      <c r="CM37" s="14"/>
+      <c r="CN37" s="14"/>
+      <c r="CO37" s="14"/>
+    </row>
+    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="6"/>
     </row>

--- a/2.Data/VegetationData.xlsx
+++ b/2.Data/VegetationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/TsoKarVegetationDataAnalysisR/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107132E7-3CC6-4EB0-BE41-E2407900FF42}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="8_{872A76ED-DD01-460B-A727-DB46B93C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C2E59A-4D90-4497-A95F-520246C8D3AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DACF362B-6137-4498-953D-1E748F44EEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>Argentina anserina</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Knorringia pamirica</t>
   </si>
   <si>
-    <t>Lomatogonium branchyantherum</t>
-  </si>
-  <si>
     <t>Pedicularis longiflora var. tubiformis</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>Primula involucrata</t>
-  </si>
-  <si>
-    <t>Calamogrostis holciformis</t>
   </si>
   <si>
     <t>Festuca olgae</t>
@@ -464,6 +458,15 @@
   </si>
   <si>
     <t>Blysmus compressus</t>
+  </si>
+  <si>
+    <t>Calamagrostis holciformis</t>
+  </si>
+  <si>
+    <t>Lomatogonium brachyantherum</t>
+  </si>
+  <si>
+    <t>The category column is not used in the analysis</t>
   </si>
 </sst>
 </file>
@@ -614,10 +617,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,11 +938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620C268-8E80-43C7-B6DC-8822E5B4B5D3}">
   <dimension ref="A1:DD208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BP8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CO35" sqref="A35:CO38"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,280 +956,280 @@
   <sheetData>
     <row r="1" spans="1:93" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CM1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1238,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1342,10 +1341,10 @@
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1452,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1569,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1718,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -1873,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1988,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2102,10 +2101,10 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2207,10 +2206,10 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2320,10 +2319,10 @@
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2421,10 +2420,10 @@
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2522,10 +2521,10 @@
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2625,10 +2624,10 @@
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2744,10 +2743,10 @@
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2853,10 +2852,10 @@
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>90</v>
@@ -3033,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3160,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3299,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
@@ -3440,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3580,10 +3579,10 @@
     </row>
     <row r="21" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3696,10 +3695,10 @@
     </row>
     <row r="22" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3823,10 +3822,10 @@
     </row>
     <row r="23" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -3982,10 +3981,10 @@
     </row>
     <row r="24" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4097,10 +4096,10 @@
     </row>
     <row r="25" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4200,10 +4199,10 @@
     </row>
     <row r="26" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4303,10 +4302,10 @@
     </row>
     <row r="27" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4404,10 +4403,10 @@
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4509,10 +4508,10 @@
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4628,10 +4627,10 @@
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4739,10 +4738,10 @@
     </row>
     <row r="31" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3">
@@ -5993,9 +5992,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CAEA5A-97D1-4AED-AE80-95CAA6A7C200}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6003,12 +6002,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
